--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,28 +43,31 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>falling</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>shit</t>
   </si>
   <si>
     <t>fears</t>
@@ -73,39 +76,36 @@
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -118,6 +118,9 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -130,6 +133,12 @@
     <t>hand</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
@@ -139,79 +148,79 @@
     <t>support</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>special</t>
+    <t>save</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
     <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -569,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -638,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>33</v>
@@ -688,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -812,13 +821,13 @@
         <v>36</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -838,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8698630136986302</v>
+        <v>0.8664383561643836</v>
       </c>
       <c r="C7">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D7">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K7">
-        <v>0.9190600522193212</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L7">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,13 +921,13 @@
         <v>38</v>
       </c>
       <c r="K8">
-        <v>0.9014084507042254</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L8">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="M8">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,7 +947,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8620689655172413</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -956,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8984375</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8461538461538461</v>
+        <v>0.825</v>
       </c>
       <c r="C10">
         <v>33</v>
@@ -1006,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K10">
-        <v>0.8962264150943396</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,7 +1047,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="C11">
         <v>32</v>
@@ -1056,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K11">
-        <v>0.89375</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L11">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="M11">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7843137254901961</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K12">
-        <v>0.8936170212765957</v>
+        <v>0.8984375</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.751937984496124</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C13">
-        <v>388</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>388</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K13">
-        <v>0.8928571428571429</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7288135593220338</v>
+        <v>0.7635658914728682</v>
       </c>
       <c r="C14">
-        <v>43</v>
+        <v>394</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>394</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K14">
-        <v>0.8787878787878788</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7248677248677249</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="C15">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D15">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K15">
-        <v>0.8658536585365854</v>
+        <v>0.875</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6944444444444444</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1306,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>46</v>
@@ -1338,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6923076923076923</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1356,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>47</v>
@@ -1388,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6644295302013423</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C18">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1406,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K18">
-        <v>0.8095238095238095</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1438,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6545454545454545</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1456,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1480,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1488,13 +1497,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5357142857142857</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1506,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>50</v>
@@ -1562,13 +1571,13 @@
         <v>51</v>
       </c>
       <c r="K21">
-        <v>0.7794117647058824</v>
+        <v>0.78</v>
       </c>
       <c r="L21">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1580,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1588,13 +1597,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5066666666666667</v>
+        <v>0.4125</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1606,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K22">
-        <v>0.7777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1630,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1638,13 +1647,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4</v>
+        <v>0.4087301587301587</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1656,19 +1665,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K23">
-        <v>0.7491525423728813</v>
+        <v>0.7735294117647059</v>
       </c>
       <c r="L23">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="M23">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1680,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1688,13 +1697,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3571428571428572</v>
+        <v>0.4</v>
       </c>
       <c r="C24">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1706,19 +1715,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K24">
-        <v>0.7450980392156863</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1730,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1738,13 +1747,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3246753246753247</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1756,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K25">
-        <v>0.7405857740585774</v>
+        <v>0.7448979591836735</v>
       </c>
       <c r="L25">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="M25">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1777,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1788,13 +1797,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.160857908847185</v>
+        <v>0.1903485254691689</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1806,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K26">
-        <v>0.7303370786516854</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L26">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M26">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1838,13 +1847,13 @@
         <v>57</v>
       </c>
       <c r="K27">
-        <v>0.723404255319149</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L27">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="M27">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1856,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1864,13 +1873,13 @@
         <v>58</v>
       </c>
       <c r="K28">
-        <v>0.7230769230769231</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1882,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1890,13 +1899,13 @@
         <v>59</v>
       </c>
       <c r="K29">
-        <v>0.6857142857142857</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1908,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1916,13 +1925,13 @@
         <v>60</v>
       </c>
       <c r="K30">
-        <v>0.6666666666666666</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1934,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1942,13 +1951,13 @@
         <v>61</v>
       </c>
       <c r="K31">
-        <v>0.625</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1960,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1968,13 +1977,13 @@
         <v>62</v>
       </c>
       <c r="K32">
-        <v>0.5897435897435898</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1986,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1994,13 +2003,13 @@
         <v>63</v>
       </c>
       <c r="K33">
-        <v>0.5753424657534246</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2012,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2020,25 +2029,25 @@
         <v>64</v>
       </c>
       <c r="K34">
-        <v>0.5245901639344263</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L34">
+        <v>41</v>
+      </c>
+      <c r="M34">
+        <v>41</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>32</v>
-      </c>
-      <c r="M34">
-        <v>32</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>29</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2046,13 +2055,13 @@
         <v>65</v>
       </c>
       <c r="K35">
-        <v>0.453125</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2065,6 +2074,84 @@
       </c>
       <c r="Q35">
         <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36">
+        <v>0.5245901639344263</v>
+      </c>
+      <c r="L36">
+        <v>32</v>
+      </c>
+      <c r="M36">
+        <v>32</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37">
+        <v>0.515625</v>
+      </c>
+      <c r="L37">
+        <v>33</v>
+      </c>
+      <c r="M37">
+        <v>33</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38">
+        <v>0.4745762711864407</v>
+      </c>
+      <c r="L38">
+        <v>28</v>
+      </c>
+      <c r="M38">
+        <v>28</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
